--- a/grupos/4APV - Estadisticos 2020.xlsx
+++ b/grupos/4APV - Estadisticos 2020.xlsx
@@ -3900,6 +3900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5916,7 +5917,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6612,6 +6614,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4APV - Estadisticos 2020.xlsx
+++ b/grupos/4APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="169">
   <si>
     <t>Materia</t>
   </si>
@@ -254,6 +254,9 @@
     <t>CONTRERAS</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>GARCIA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
     <t>MENDOZA</t>
   </si>
   <si>
@@ -296,6 +305,12 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
@@ -317,6 +332,9 @@
     <t>XOLIO</t>
   </si>
   <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
@@ -332,7 +350,7 @@
     <t>AMADOR</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
+    <t>VAZQUEZ</t>
   </si>
   <si>
     <t>AULIS</t>
@@ -344,6 +362,9 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>TIBURCIO</t>
   </si>
   <si>
@@ -353,6 +374,9 @@
     <t>TZOPITL</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>ROJAS</t>
   </si>
   <si>
@@ -362,15 +386,15 @@
     <t>DOMINGUEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>MONTERROSAS</t>
   </si>
   <si>
     <t>CAMPOS</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
@@ -386,6 +410,9 @@
     <t>RAMOS</t>
   </si>
   <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
     <t>ISRAEL</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t>CRUZ JESUS</t>
   </si>
   <si>
+    <t>SAUL ESTEBAN</t>
+  </si>
+  <si>
     <t>ALDO</t>
   </si>
   <si>
@@ -416,6 +446,9 @@
     <t>ABRAHAM</t>
   </si>
   <si>
+    <t>ARELY</t>
+  </si>
+  <si>
     <t>EDGAR</t>
   </si>
   <si>
@@ -431,6 +464,12 @@
     <t>JESUS MANUEL</t>
   </si>
   <si>
+    <t>RUBEN</t>
+  </si>
+  <si>
+    <t>LUZ ABRIL</t>
+  </si>
+  <si>
     <t>GABRIELA</t>
   </si>
   <si>
@@ -452,6 +491,12 @@
     <t>ANDREA YAMILET</t>
   </si>
   <si>
+    <t>CRISTOPHER ENRIQUE</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
     <t>JESUS ARMANDO</t>
   </si>
   <si>
@@ -461,6 +506,9 @@
     <t>GWINETH</t>
   </si>
   <si>
+    <t>YOSEF OMAR</t>
+  </si>
+  <si>
     <t>ABIGAIL</t>
   </si>
   <si>
@@ -474,54 +522,6 @@
   </si>
   <si>
     <t>JOEL</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>MANUEL</t>
-  </si>
-  <si>
-    <t>PATIÑO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>SAUL ESTEBAN</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
-    <t>LUZ ABRIL</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ENRIQUE</t>
-  </si>
-  <si>
-    <t>CARLOS FERNANDO</t>
-  </si>
-  <si>
-    <t>YOSEF OMAR</t>
   </si>
   <si>
     <t>MARITZA</t>
@@ -1017,7 +1017,7 @@
         <v>-1</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -1026,7 +1026,7 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -1038,7 +1038,7 @@
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1094,7 +1094,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -1162,7 +1162,7 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1171,10 +1171,10 @@
         <v>-1</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1230,7 +1230,7 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1366,7 +1366,7 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1375,10 +1375,10 @@
         <v>-1</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1434,7 +1434,7 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1502,7 +1502,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1511,10 +1511,10 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -1570,7 +1570,7 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1579,10 +1579,10 @@
         <v>-1</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1629,7 +1629,7 @@
         <v>-1</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1638,7 +1638,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1650,7 +1650,7 @@
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -1706,7 +1706,7 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1715,10 +1715,10 @@
         <v>-1</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -1774,7 +1774,7 @@
         <v>-1</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1851,10 +1851,10 @@
         <v>-1</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1910,7 +1910,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1978,7 +1978,7 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -2034,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>8</v>
@@ -2046,7 +2046,7 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -2055,10 +2055,10 @@
         <v>-1</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2114,7 +2114,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2123,10 +2123,10 @@
         <v>-1</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2182,7 +2182,7 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2250,7 +2250,7 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2259,10 +2259,10 @@
         <v>-1</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2374,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -2386,7 +2386,7 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2398,7 +2398,7 @@
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2590,7 +2590,7 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2658,7 +2658,7 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2726,7 +2726,7 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2735,10 +2735,10 @@
         <v>-1</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2794,7 +2794,7 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2862,7 +2862,7 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2871,10 +2871,10 @@
         <v>-1</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2986,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -2998,7 +2998,7 @@
         <v>-1</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L33">
         <v>-1</v>
@@ -3007,10 +3007,10 @@
         <v>-1</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3066,7 +3066,7 @@
         <v>-1</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>-1</v>
@@ -3075,10 +3075,10 @@
         <v>-1</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3134,7 +3134,7 @@
         <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>-1</v>
@@ -3202,7 +3202,7 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L36">
         <v>-1</v>
@@ -3258,7 +3258,7 @@
         <v>9</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -3270,7 +3270,7 @@
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
         <v>-1</v>
@@ -3279,10 +3279,10 @@
         <v>-1</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3338,7 +3338,7 @@
         <v>-1</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
         <v>-1</v>
@@ -3394,7 +3394,7 @@
         <v>-1</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H39">
         <v>6</v>
@@ -3406,7 +3406,7 @@
         <v>-1</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3474,7 +3474,7 @@
         <v>-1</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L40">
         <v>-1</v>
@@ -3542,7 +3542,7 @@
         <v>-1</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L41">
         <v>-1</v>
@@ -3595,7 +3595,7 @@
         <v>-1</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>-1</v>
@@ -3674,25 +3674,25 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.05</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>78.95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3869,22 +3869,22 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>78.95</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="H8">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3894,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3932,16 +3932,16 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3952,10 +3952,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3972,10 +3972,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3986,42 +3986,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920308</v>
+        <v>19330051920307</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920308</v>
+        <v>19330051920307</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4032,330 +4032,330 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920309</v>
+        <v>19330051920308</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920311</v>
+        <v>19330051920308</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920311</v>
+        <v>19330051920308</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920312</v>
+        <v>19330051920308</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920312</v>
+        <v>19330051920308</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920316</v>
+        <v>19330051920309</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920450</v>
+        <v>19330051920309</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920450</v>
+        <v>19330051920309</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920450</v>
+        <v>19330051920309</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920450</v>
+        <v>19330051920311</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920450</v>
+        <v>19330051920311</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920450</v>
+        <v>19330051920311</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920319</v>
+        <v>19330051920311</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920323</v>
+        <v>19330051920311</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920441</v>
+        <v>19330051920311</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920327</v>
+        <v>19330051920312</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -4366,136 +4366,136 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920327</v>
+        <v>19330051920312</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920327</v>
+        <v>19330051920312</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920327</v>
+        <v>19330051920312</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920327</v>
+        <v>19330051920312</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920327</v>
+        <v>19330051920316</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920453</v>
+        <v>19330051920316</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920453</v>
+        <v>19330051920316</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920453</v>
+        <v>19330051920316</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -4526,96 +4526,96 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920453</v>
+        <v>19330051920450</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920453</v>
+        <v>19330051920450</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920453</v>
+        <v>19330051920450</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920321</v>
+        <v>19330051920450</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920321</v>
+        <v>19330051920450</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -4626,16 +4626,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920321</v>
+        <v>19330051920450</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -4646,16 +4646,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920330</v>
+        <v>19330051920318</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -4666,176 +4666,176 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920330</v>
+        <v>19330051920318</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920330</v>
+        <v>19330051920318</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920332</v>
+        <v>19330051920318</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920332</v>
+        <v>19330051920319</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920334</v>
+        <v>19330051920319</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920334</v>
+        <v>19330051920319</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920334</v>
+        <v>19330051920319</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920337</v>
+        <v>19330051920323</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920338</v>
+        <v>19330051920323</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -4846,16 +4846,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920338</v>
+        <v>19330051920323</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -4866,16 +4866,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920338</v>
+        <v>19330051920323</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -4886,276 +4886,276 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
         <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920339</v>
+        <v>19330051920441</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920340</v>
+        <v>19330051920325</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920340</v>
+        <v>19330051920325</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920340</v>
+        <v>19330051920325</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
         <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920340</v>
+        <v>19330051920325</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920340</v>
+        <v>19330051920327</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920340</v>
+        <v>19330051920327</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920445</v>
+        <v>19330051920327</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920445</v>
+        <v>19330051920327</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -5166,216 +5166,216 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920445</v>
+        <v>19330051920327</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920445</v>
+        <v>19330051920327</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920445</v>
+        <v>19330051920453</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920342</v>
+        <v>19330051920453</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
         <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920342</v>
+        <v>19330051920453</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920342</v>
+        <v>19330051920453</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920342</v>
+        <v>19330051920453</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
         <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920342</v>
+        <v>19330051920453</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920347</v>
+        <v>19330051920321</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
         <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920347</v>
+        <v>19330051920321</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920347</v>
+        <v>19330051920321</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -5386,373 +5386,373 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920347</v>
+        <v>19330051920321</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
         <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920347</v>
+        <v>19330051920321</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920440</v>
+        <v>19330051920330</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920440</v>
+        <v>19330051920330</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920440</v>
+        <v>19330051920330</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920345</v>
+        <v>19330051920330</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920350</v>
+        <v>19330051920332</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
         <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920350</v>
+        <v>19330051920332</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920350</v>
+        <v>19330051920332</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
         <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920350</v>
+        <v>19330051920332</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
         <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920351</v>
+        <v>19330051920332</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920352</v>
+        <v>19330051920332</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920352</v>
+        <v>19330051920331</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
         <v>148</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920352</v>
+        <v>19330051920331</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
         <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920352</v>
+        <v>19330051920331</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
         <v>148</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920352</v>
+        <v>19330051920331</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
         <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920354</v>
+        <v>19330051920333</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
         <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920354</v>
+        <v>19330051920333</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
         <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920354</v>
+        <v>19330051920333</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
         <v>149</v>
@@ -5766,116 +5766,116 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920354</v>
+        <v>19330051920333</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
         <v>149</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920353</v>
+        <v>19330051920334</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D95" t="s">
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920353</v>
+        <v>19330051920334</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D96" t="s">
         <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920353</v>
+        <v>19330051920334</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D97" t="s">
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920355</v>
+        <v>19330051920334</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920355</v>
+        <v>19330051920334</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -5886,22 +5886,2002 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
+        <v>19330051920334</v>
+      </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920337</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920337</v>
+      </c>
+      <c r="B102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920337</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920337</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>19330051920338</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920338</v>
+      </c>
+      <c r="B107" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920338</v>
+      </c>
+      <c r="B108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920338</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920338</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920339</v>
+      </c>
+      <c r="B112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920339</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920339</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920339</v>
+      </c>
+      <c r="B115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920339</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920339</v>
+      </c>
+      <c r="B117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920340</v>
+      </c>
+      <c r="B118" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920340</v>
+      </c>
+      <c r="B119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920340</v>
+      </c>
+      <c r="B120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920340</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920340</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920340</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920445</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D124" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920445</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920445</v>
+      </c>
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920445</v>
+      </c>
+      <c r="B127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" t="s">
+        <v>83</v>
+      </c>
+      <c r="D127" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920445</v>
+      </c>
+      <c r="B128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920445</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920342</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920342</v>
+      </c>
+      <c r="B131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920342</v>
+      </c>
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920342</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" t="s">
+        <v>122</v>
+      </c>
+      <c r="D133" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920342</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920342</v>
+      </c>
+      <c r="B135" t="s">
+        <v>94</v>
+      </c>
+      <c r="C135" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920341</v>
+      </c>
+      <c r="B136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920341</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920341</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920341</v>
+      </c>
+      <c r="B139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920344</v>
+      </c>
+      <c r="B140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920344</v>
+      </c>
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+      <c r="D141" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920344</v>
+      </c>
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920344</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920347</v>
+      </c>
+      <c r="B144" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920347</v>
+      </c>
+      <c r="B145" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" t="s">
+        <v>123</v>
+      </c>
+      <c r="D145" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>19330051920347</v>
+      </c>
+      <c r="B146" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920347</v>
+      </c>
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>19330051920347</v>
+      </c>
+      <c r="B148" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920347</v>
+      </c>
+      <c r="B149" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>19330051920440</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>19330051920440</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>19330051920440</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" t="s">
+        <v>83</v>
+      </c>
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>19330051920440</v>
+      </c>
+      <c r="B153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>19330051920440</v>
+      </c>
+      <c r="B154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>19330051920440</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>19330051920345</v>
+      </c>
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>19330051920345</v>
+      </c>
+      <c r="B157" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>19330051920345</v>
+      </c>
+      <c r="B158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>19330051920345</v>
+      </c>
+      <c r="B159" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" t="s">
+        <v>161</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>19330051920346</v>
+      </c>
+      <c r="B160" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" t="s">
+        <v>124</v>
+      </c>
+      <c r="D160" t="s">
+        <v>162</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>19330051920346</v>
+      </c>
+      <c r="B161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" t="s">
+        <v>124</v>
+      </c>
+      <c r="D161" t="s">
+        <v>162</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>19330051920346</v>
+      </c>
+      <c r="B162" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" t="s">
+        <v>124</v>
+      </c>
+      <c r="D162" t="s">
+        <v>162</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>19330051920346</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" t="s">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>19330051920350</v>
+      </c>
+      <c r="B164" t="s">
+        <v>99</v>
+      </c>
+      <c r="C164" t="s">
+        <v>125</v>
+      </c>
+      <c r="D164" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>19330051920350</v>
+      </c>
+      <c r="B165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C165" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>19330051920350</v>
+      </c>
+      <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>19330051920350</v>
+      </c>
+      <c r="B167" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" t="s">
+        <v>125</v>
+      </c>
+      <c r="D167" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>19330051920350</v>
+      </c>
+      <c r="B168" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>19330051920350</v>
+      </c>
+      <c r="B169" t="s">
+        <v>99</v>
+      </c>
+      <c r="C169" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>19330051920351</v>
+      </c>
+      <c r="B170" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" t="s">
+        <v>126</v>
+      </c>
+      <c r="D170" t="s">
+        <v>143</v>
+      </c>
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>19330051920351</v>
+      </c>
+      <c r="B171" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171" t="s">
+        <v>143</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>19330051920351</v>
+      </c>
+      <c r="B172" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172" t="s">
+        <v>143</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>19330051920351</v>
+      </c>
+      <c r="B173" t="s">
+        <v>100</v>
+      </c>
+      <c r="C173" t="s">
+        <v>126</v>
+      </c>
+      <c r="D173" t="s">
+        <v>143</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>19330051920352</v>
+      </c>
+      <c r="B174" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" t="s">
+        <v>127</v>
+      </c>
+      <c r="D174" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>19330051920352</v>
+      </c>
+      <c r="B175" t="s">
+        <v>101</v>
+      </c>
+      <c r="C175" t="s">
+        <v>127</v>
+      </c>
+      <c r="D175" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>19330051920352</v>
+      </c>
+      <c r="B176" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>19330051920352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" t="s">
+        <v>127</v>
+      </c>
+      <c r="D177" t="s">
+        <v>164</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>19330051920352</v>
+      </c>
+      <c r="B178" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" t="s">
+        <v>127</v>
+      </c>
+      <c r="D178" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>19330051920352</v>
+      </c>
+      <c r="B179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>19330051920354</v>
+      </c>
+      <c r="B180" t="s">
+        <v>102</v>
+      </c>
+      <c r="C180" t="s">
+        <v>128</v>
+      </c>
+      <c r="D180" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>19330051920354</v>
+      </c>
+      <c r="B181" t="s">
+        <v>102</v>
+      </c>
+      <c r="C181" t="s">
+        <v>128</v>
+      </c>
+      <c r="D181" t="s">
+        <v>165</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>19330051920354</v>
+      </c>
+      <c r="B182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" t="s">
+        <v>128</v>
+      </c>
+      <c r="D182" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>19330051920354</v>
+      </c>
+      <c r="B183" t="s">
+        <v>102</v>
+      </c>
+      <c r="C183" t="s">
+        <v>128</v>
+      </c>
+      <c r="D183" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>19330051920354</v>
+      </c>
+      <c r="B184" t="s">
+        <v>102</v>
+      </c>
+      <c r="C184" t="s">
+        <v>128</v>
+      </c>
+      <c r="D184" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>19330051920354</v>
+      </c>
+      <c r="B185" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" t="s">
+        <v>128</v>
+      </c>
+      <c r="D185" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+      <c r="F185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>19330051920353</v>
+      </c>
+      <c r="B186" t="s">
+        <v>103</v>
+      </c>
+      <c r="C186" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>19330051920353</v>
+      </c>
+      <c r="B187" t="s">
+        <v>103</v>
+      </c>
+      <c r="C187" t="s">
+        <v>129</v>
+      </c>
+      <c r="D187" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>19330051920353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>103</v>
+      </c>
+      <c r="C188" t="s">
+        <v>129</v>
+      </c>
+      <c r="D188" t="s">
+        <v>166</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>19330051920353</v>
+      </c>
+      <c r="B189" t="s">
+        <v>103</v>
+      </c>
+      <c r="C189" t="s">
+        <v>129</v>
+      </c>
+      <c r="D189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>19330051920353</v>
+      </c>
+      <c r="B190" t="s">
+        <v>103</v>
+      </c>
+      <c r="C190" t="s">
+        <v>129</v>
+      </c>
+      <c r="D190" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>19330051920353</v>
+      </c>
+      <c r="B191" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D191" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
         <v>19330051920355</v>
       </c>
-      <c r="B100" t="s">
-        <v>97</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="B192" t="s">
+        <v>102</v>
+      </c>
+      <c r="C192" t="s">
+        <v>102</v>
+      </c>
+      <c r="D192" t="s">
+        <v>167</v>
+      </c>
+      <c r="E192" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>19330051920355</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" t="s">
+        <v>102</v>
+      </c>
+      <c r="D193" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>19330051920355</v>
+      </c>
+      <c r="B194" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>19330051920355</v>
+      </c>
+      <c r="B195" t="s">
+        <v>102</v>
+      </c>
+      <c r="C195" t="s">
+        <v>102</v>
+      </c>
+      <c r="D195" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>19330051920355</v>
+      </c>
+      <c r="B196" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>19330051920355</v>
+      </c>
+      <c r="B197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>17330051920076</v>
+      </c>
+      <c r="B198" t="s">
+        <v>104</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" t="s">
+        <v>168</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>17330051920076</v>
+      </c>
+      <c r="B199" t="s">
+        <v>104</v>
+      </c>
+      <c r="C199" t="s">
+        <v>130</v>
+      </c>
+      <c r="D199" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5946,10 +7926,10 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5960,13 +7940,13 @@
         <v>19330051920327</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -5977,13 +7957,13 @@
         <v>19330051920453</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -5994,13 +7974,13 @@
         <v>19330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -6011,13 +7991,13 @@
         <v>19330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -6028,13 +8008,13 @@
         <v>19330051920445</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -6045,13 +8025,13 @@
         <v>19330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -6062,13 +8042,13 @@
         <v>19330051920347</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -6079,13 +8059,13 @@
         <v>19330051920352</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -6096,13 +8076,13 @@
         <v>19330051920350</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -6113,13 +8093,13 @@
         <v>19330051920354</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -6127,16 +8107,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -6144,16 +8124,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920308</v>
+        <v>19330051920334</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -6161,16 +8141,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920321</v>
+        <v>19330051920338</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -6178,16 +8158,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920330</v>
+        <v>19330051920440</v>
       </c>
       <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6195,16 +8175,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920334</v>
+        <v>19330051920355</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -6212,84 +8192,84 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920338</v>
+        <v>19330051920307</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920440</v>
+        <v>19330051920312</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920353</v>
+        <v>19330051920321</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920355</v>
+        <v>19330051920330</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920311</v>
+        <v>19330051920332</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6297,16 +8277,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920312</v>
+        <v>19330051920353</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -6314,19 +8294,19 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920332</v>
+        <v>19330051920311</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6337,13 +8317,13 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6354,129 +8334,129 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920319</v>
+        <v>19330051920318</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920323</v>
+        <v>19330051920319</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920441</v>
+        <v>19330051920323</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920337</v>
+        <v>19330051920441</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920345</v>
+        <v>19330051920325</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920351</v>
+        <v>19330051920331</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920318</v>
+        <v>19330051920333</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6484,16 +8464,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920325</v>
+        <v>19330051920337</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6501,16 +8481,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920331</v>
+        <v>19330051920341</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6518,16 +8498,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920333</v>
+        <v>19330051920344</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6535,16 +8515,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920341</v>
+        <v>19330051920345</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6552,16 +8532,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920344</v>
+        <v>19330051920346</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6569,16 +8549,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920346</v>
+        <v>19330051920351</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6589,10 +8569,10 @@
         <v>17330051920076</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -6608,7 +8588,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6643,324 +8623,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920311</v>
+        <v>17330051920076</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920311</v>
+        <v>17330051920076</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920312</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920312</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920332</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920332</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920309</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920316</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920319</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920323</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920441</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920337</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920345</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920351</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4APV - Estadisticos 2020.xlsx
+++ b/grupos/4APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="169">
   <si>
     <t>Materia</t>
   </si>
@@ -203,10 +203,13 @@
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
+    <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
@@ -218,9 +221,6 @@
     <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -239,21 +239,213 @@
     <t>ARELLANO</t>
   </si>
   <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>XOLIO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>CARLO HUMBERTO</t>
+  </si>
+  <si>
+    <t>JOSMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>CRUZ JESUS</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>VICTOR YAHIR</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>JESUS ARMANDO</t>
+  </si>
+  <si>
+    <t>CIELO IVETTE</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>HERSON ELIAS</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
     <t>ARRIETA</t>
   </si>
   <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
     <t>CERVANTES</t>
   </si>
   <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
@@ -263,93 +455,18 @@
     <t>GALVEZ</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MANUEL</t>
   </si>
   <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
     <t>PATIÑO</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>XOLIO</t>
-  </si>
-  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
     <t>NAVA</t>
   </si>
   <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
@@ -359,81 +476,24 @@
     <t>ALTAMIRANO</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>GALLARDO</t>
   </si>
   <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>ROBLES</t>
   </si>
   <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>CARLO HUMBERTO</t>
-  </si>
-  <si>
     <t>JESUS ALBERTO</t>
   </si>
   <si>
-    <t>JOSMAR ANTONIO</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
-    <t>CRUZ JESUS</t>
-  </si>
-  <si>
     <t>SAUL ESTEBAN</t>
   </si>
   <si>
@@ -443,85 +503,25 @@
     <t>ADRIAN</t>
   </si>
   <si>
-    <t>ABRAHAM</t>
-  </si>
-  <si>
     <t>ARELY</t>
   </si>
   <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL</t>
-  </si>
-  <si>
     <t>RUBEN</t>
   </si>
   <si>
     <t>LUZ ABRIL</t>
   </si>
   <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>VICTOR YAHIR</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>JOSHUA</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO</t>
-  </si>
-  <si>
-    <t>ANDREA YAMILET</t>
-  </si>
-  <si>
     <t>CRISTOPHER ENRIQUE</t>
   </si>
   <si>
     <t>CARLOS FERNANDO</t>
   </si>
   <si>
-    <t>JESUS ARMANDO</t>
-  </si>
-  <si>
-    <t>CIELO IVETTE</t>
-  </si>
-  <si>
     <t>GWINETH</t>
   </si>
   <si>
     <t>YOSEF OMAR</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>HERSON ELIAS</t>
-  </si>
-  <si>
-    <t>JOEL</t>
   </si>
   <si>
     <t>MARITZA</t>
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -1020,19 +1020,19 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -1156,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>9</v>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1292,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1360,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1428,7 +1428,7 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1496,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>8</v>
@@ -1564,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>9</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -1632,16 +1632,16 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1700,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>8</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>8</v>
@@ -1768,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <v>7</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1836,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K16">
         <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>9</v>
@@ -1883,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1972,7 +1972,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -2049,10 +2049,10 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>7</v>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
         <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>9</v>
@@ -2155,7 +2155,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2176,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -2244,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>9</v>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2321,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>-1</v>
@@ -2380,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2427,7 +2427,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2448,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -2584,7 +2584,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2631,7 +2631,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2720,19 +2720,19 @@
         <v>8</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K29">
         <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>9</v>
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J30">
         <v>-1</v>
@@ -2856,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K31">
         <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>10</v>
@@ -2924,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J32">
         <v>-1</v>
@@ -2992,19 +2992,19 @@
         <v>8</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K33">
         <v>8</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>9</v>
@@ -3060,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>10</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>9</v>
@@ -3107,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3128,7 +3128,7 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>-1</v>
@@ -3137,7 +3137,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -3175,7 +3175,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3196,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -3205,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>-1</v>
@@ -3264,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -3273,10 +3273,10 @@
         <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>7</v>
@@ -3311,7 +3311,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -3332,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>-1</v>
@@ -3447,7 +3447,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -3459,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -3468,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M40">
         <v>-1</v>
@@ -3536,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -3592,13 +3592,13 @@
         <v>7</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3674,30 +3674,30 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>36.84</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13.16</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -3706,30 +3706,30 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>52.63</v>
+        <v>44.74</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J3">
-        <v>47.37</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3738,62 +3738,62 @@
         <v>38</v>
       </c>
       <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>47.37</v>
+      </c>
+      <c r="G4">
+        <v>10.53</v>
+      </c>
+      <c r="H4">
+        <v>9.4</v>
+      </c>
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="J4">
         <v>52.63</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8.5</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>47.37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>64.09999999999999</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.21</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>35.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3802,30 +3802,30 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>69.23</v>
+      </c>
+      <c r="G6">
+        <v>30.77</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>71.79000000000001</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>28.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -3834,57 +3834,57 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>76.92</v>
+        <v>74.36</v>
       </c>
       <c r="G7">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>78.95</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="G8">
-        <v>5.26</v>
+        <v>20.51</v>
       </c>
       <c r="H8">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.79</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3894,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3932,30 +3932,30 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3966,19 +3966,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -3986,19 +3986,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
@@ -4006,19 +4006,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
@@ -4026,59 +4026,59 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920308</v>
+        <v>19330051920311</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920308</v>
+        <v>19330051920311</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920308</v>
+        <v>19330051920311</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -4086,156 +4086,156 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920308</v>
+        <v>19330051920312</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920308</v>
+        <v>19330051920450</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920308</v>
+        <v>19330051920450</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920309</v>
+        <v>19330051920450</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920309</v>
+        <v>19330051920450</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920309</v>
+        <v>19330051920450</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920309</v>
+        <v>19330051920441</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920311</v>
+        <v>19330051920441</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4246,19 +4246,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920311</v>
+        <v>19330051920327</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
@@ -4266,116 +4266,116 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920311</v>
+        <v>19330051920327</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920311</v>
+        <v>19330051920327</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920311</v>
+        <v>19330051920327</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920311</v>
+        <v>19330051920327</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920312</v>
+        <v>19330051920453</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920312</v>
+        <v>19330051920453</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -4386,199 +4386,199 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920312</v>
+        <v>19330051920453</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920312</v>
+        <v>19330051920453</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920312</v>
+        <v>19330051920453</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920316</v>
+        <v>19330051920321</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920316</v>
+        <v>19330051920321</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920316</v>
+        <v>19330051920330</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920316</v>
+        <v>19330051920332</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920450</v>
+        <v>19330051920332</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920450</v>
+        <v>19330051920332</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920450</v>
+        <v>19330051920332</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -4586,279 +4586,279 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920450</v>
+        <v>19330051920334</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920450</v>
+        <v>19330051920334</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920450</v>
+        <v>19330051920334</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920318</v>
+        <v>19330051920334</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920318</v>
+        <v>19330051920337</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920318</v>
+        <v>19330051920338</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920318</v>
+        <v>19330051920338</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920319</v>
+        <v>19330051920338</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920319</v>
+        <v>19330051920338</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920319</v>
+        <v>19330051920339</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920319</v>
+        <v>19330051920339</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920323</v>
+        <v>19330051920339</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920323</v>
+        <v>19330051920339</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920323</v>
+        <v>19330051920339</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>61</v>
@@ -4866,76 +4866,76 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920323</v>
+        <v>19330051920340</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920441</v>
+        <v>19330051920340</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920441</v>
+        <v>19330051920340</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920441</v>
+        <v>19330051920340</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -4946,159 +4946,159 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920441</v>
+        <v>19330051920340</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920441</v>
+        <v>19330051920445</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920441</v>
+        <v>19330051920445</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920325</v>
+        <v>19330051920445</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920325</v>
+        <v>19330051920445</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920325</v>
+        <v>19330051920445</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920325</v>
+        <v>19330051920342</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920327</v>
+        <v>19330051920342</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>62</v>
@@ -5106,259 +5106,259 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920327</v>
+        <v>19330051920342</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920327</v>
+        <v>19330051920342</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920327</v>
+        <v>19330051920342</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920327</v>
+        <v>19330051920347</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920327</v>
+        <v>19330051920347</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920453</v>
+        <v>19330051920347</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920453</v>
+        <v>19330051920347</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920453</v>
+        <v>19330051920440</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920453</v>
+        <v>19330051920440</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920453</v>
+        <v>19330051920440</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920453</v>
+        <v>19330051920440</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920321</v>
+        <v>19330051920440</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920321</v>
+        <v>19330051920350</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
         <v>61</v>
@@ -5366,39 +5366,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920321</v>
+        <v>19330051920350</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920321</v>
+        <v>19330051920350</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>63</v>
@@ -5406,79 +5406,79 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920321</v>
+        <v>19330051920350</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920330</v>
+        <v>19330051920351</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920330</v>
+        <v>19330051920352</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920330</v>
+        <v>19330051920352</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
         <v>61</v>
@@ -5486,19 +5486,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920330</v>
+        <v>19330051920352</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
         <v>63</v>
@@ -5506,39 +5506,39 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920332</v>
+        <v>19330051920352</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920332</v>
+        <v>19330051920352</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
         <v>62</v>
@@ -5546,2342 +5546,262 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920332</v>
+        <v>19330051920354</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920332</v>
+        <v>19330051920354</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920332</v>
+        <v>19330051920354</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920332</v>
+        <v>19330051920354</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920331</v>
+        <v>19330051920353</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920331</v>
+        <v>19330051920353</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920331</v>
+        <v>19330051920353</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920331</v>
+        <v>19330051920353</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920333</v>
+        <v>19330051920355</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920333</v>
+        <v>19330051920355</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920333</v>
+        <v>19330051920355</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920333</v>
+        <v>19330051920355</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920334</v>
+        <v>19330051920355</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920334</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920334</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920334</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920334</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" t="s">
-        <v>150</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920334</v>
-      </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920337</v>
-      </c>
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920337</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920337</v>
-      </c>
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920337</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920337</v>
-      </c>
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920338</v>
-      </c>
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" t="s">
-        <v>152</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920338</v>
-      </c>
-      <c r="B107" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920338</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920338</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920338</v>
-      </c>
-      <c r="B110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" t="s">
-        <v>152</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920338</v>
-      </c>
-      <c r="B111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" t="s">
-        <v>152</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920339</v>
-      </c>
-      <c r="B112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920339</v>
-      </c>
-      <c r="B113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C113" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" t="s">
-        <v>153</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920339</v>
-      </c>
-      <c r="B114" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" t="s">
-        <v>121</v>
-      </c>
-      <c r="D114" t="s">
-        <v>153</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920339</v>
-      </c>
-      <c r="B115" t="s">
-        <v>91</v>
-      </c>
-      <c r="C115" t="s">
-        <v>121</v>
-      </c>
-      <c r="D115" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920339</v>
-      </c>
-      <c r="B116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" t="s">
-        <v>121</v>
-      </c>
-      <c r="D116" t="s">
-        <v>153</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920339</v>
-      </c>
-      <c r="B117" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920340</v>
-      </c>
-      <c r="B118" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D118" t="s">
-        <v>154</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920340</v>
-      </c>
-      <c r="B119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920340</v>
-      </c>
-      <c r="B120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" t="s">
-        <v>154</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920340</v>
-      </c>
-      <c r="B121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920340</v>
-      </c>
-      <c r="B122" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" t="s">
-        <v>96</v>
-      </c>
-      <c r="D122" t="s">
-        <v>154</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920340</v>
-      </c>
-      <c r="B123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C123" t="s">
-        <v>96</v>
-      </c>
-      <c r="D123" t="s">
-        <v>154</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920445</v>
-      </c>
-      <c r="B124" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" t="s">
-        <v>155</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920445</v>
-      </c>
-      <c r="B125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920445</v>
-      </c>
-      <c r="B126" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920445</v>
-      </c>
-      <c r="B127" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920445</v>
-      </c>
-      <c r="B128" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" t="s">
-        <v>155</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920445</v>
-      </c>
-      <c r="B129" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920342</v>
-      </c>
-      <c r="B130" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" t="s">
-        <v>122</v>
-      </c>
-      <c r="D130" t="s">
-        <v>156</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920342</v>
-      </c>
-      <c r="B131" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920342</v>
-      </c>
-      <c r="B132" t="s">
-        <v>94</v>
-      </c>
-      <c r="C132" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920342</v>
-      </c>
-      <c r="B133" t="s">
-        <v>94</v>
-      </c>
-      <c r="C133" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920342</v>
-      </c>
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" t="s">
-        <v>156</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920342</v>
-      </c>
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" t="s">
-        <v>156</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920341</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>100</v>
-      </c>
-      <c r="D136" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920341</v>
-      </c>
-      <c r="B137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C137" t="s">
-        <v>100</v>
-      </c>
-      <c r="D137" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920341</v>
-      </c>
-      <c r="B138" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" t="s">
-        <v>100</v>
-      </c>
-      <c r="D138" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920341</v>
-      </c>
-      <c r="B139" t="s">
-        <v>95</v>
-      </c>
-      <c r="C139" t="s">
-        <v>100</v>
-      </c>
-      <c r="D139" t="s">
-        <v>157</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920344</v>
-      </c>
-      <c r="B140" t="s">
-        <v>96</v>
-      </c>
-      <c r="C140" t="s">
-        <v>71</v>
-      </c>
-      <c r="D140" t="s">
-        <v>158</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920344</v>
-      </c>
-      <c r="B141" t="s">
-        <v>96</v>
-      </c>
-      <c r="C141" t="s">
-        <v>71</v>
-      </c>
-      <c r="D141" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920344</v>
-      </c>
-      <c r="B142" t="s">
-        <v>96</v>
-      </c>
-      <c r="C142" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" t="s">
-        <v>158</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920344</v>
-      </c>
-      <c r="B143" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D143" t="s">
-        <v>158</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920347</v>
-      </c>
-      <c r="B144" t="s">
-        <v>97</v>
-      </c>
-      <c r="C144" t="s">
-        <v>123</v>
-      </c>
-      <c r="D144" t="s">
-        <v>159</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920347</v>
-      </c>
-      <c r="B145" t="s">
-        <v>97</v>
-      </c>
-      <c r="C145" t="s">
-        <v>123</v>
-      </c>
-      <c r="D145" t="s">
-        <v>159</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920347</v>
-      </c>
-      <c r="B146" t="s">
-        <v>97</v>
-      </c>
-      <c r="C146" t="s">
-        <v>123</v>
-      </c>
-      <c r="D146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920347</v>
-      </c>
-      <c r="B147" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" t="s">
-        <v>123</v>
-      </c>
-      <c r="D147" t="s">
-        <v>159</v>
-      </c>
-      <c r="E147" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920347</v>
-      </c>
-      <c r="B148" t="s">
-        <v>97</v>
-      </c>
-      <c r="C148" t="s">
-        <v>123</v>
-      </c>
-      <c r="D148" t="s">
-        <v>159</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920347</v>
-      </c>
-      <c r="B149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C149" t="s">
-        <v>123</v>
-      </c>
-      <c r="D149" t="s">
-        <v>159</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920440</v>
-      </c>
-      <c r="B150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" t="s">
-        <v>83</v>
-      </c>
-      <c r="D150" t="s">
-        <v>160</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920440</v>
-      </c>
-      <c r="B151" t="s">
-        <v>98</v>
-      </c>
-      <c r="C151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151" t="s">
-        <v>160</v>
-      </c>
-      <c r="E151" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920440</v>
-      </c>
-      <c r="B152" t="s">
-        <v>98</v>
-      </c>
-      <c r="C152" t="s">
-        <v>83</v>
-      </c>
-      <c r="D152" t="s">
-        <v>160</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920440</v>
-      </c>
-      <c r="B153" t="s">
-        <v>98</v>
-      </c>
-      <c r="C153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D153" t="s">
-        <v>160</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920440</v>
-      </c>
-      <c r="B154" t="s">
-        <v>98</v>
-      </c>
-      <c r="C154" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920440</v>
-      </c>
-      <c r="B155" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D155" t="s">
-        <v>160</v>
-      </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920345</v>
-      </c>
-      <c r="B156" t="s">
-        <v>98</v>
-      </c>
-      <c r="C156" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" t="s">
-        <v>161</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920345</v>
-      </c>
-      <c r="B157" t="s">
-        <v>98</v>
-      </c>
-      <c r="C157" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920345</v>
-      </c>
-      <c r="B158" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" t="s">
-        <v>161</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920345</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" t="s">
-        <v>86</v>
-      </c>
-      <c r="D159" t="s">
-        <v>161</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920346</v>
-      </c>
-      <c r="B160" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D160" t="s">
-        <v>162</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920346</v>
-      </c>
-      <c r="B161" t="s">
-        <v>98</v>
-      </c>
-      <c r="C161" t="s">
-        <v>124</v>
-      </c>
-      <c r="D161" t="s">
-        <v>162</v>
-      </c>
-      <c r="E161" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920346</v>
-      </c>
-      <c r="B162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C162" t="s">
-        <v>124</v>
-      </c>
-      <c r="D162" t="s">
-        <v>162</v>
-      </c>
-      <c r="E162" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920346</v>
-      </c>
-      <c r="B163" t="s">
-        <v>98</v>
-      </c>
-      <c r="C163" t="s">
-        <v>124</v>
-      </c>
-      <c r="D163" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920350</v>
-      </c>
-      <c r="B164" t="s">
-        <v>99</v>
-      </c>
-      <c r="C164" t="s">
-        <v>125</v>
-      </c>
-      <c r="D164" t="s">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920350</v>
-      </c>
-      <c r="B165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" t="s">
-        <v>125</v>
-      </c>
-      <c r="D165" t="s">
-        <v>163</v>
-      </c>
-      <c r="E165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920350</v>
-      </c>
-      <c r="B166" t="s">
-        <v>99</v>
-      </c>
-      <c r="C166" t="s">
-        <v>125</v>
-      </c>
-      <c r="D166" t="s">
-        <v>163</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920350</v>
-      </c>
-      <c r="B167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C167" t="s">
-        <v>125</v>
-      </c>
-      <c r="D167" t="s">
-        <v>163</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920350</v>
-      </c>
-      <c r="B168" t="s">
-        <v>99</v>
-      </c>
-      <c r="C168" t="s">
-        <v>125</v>
-      </c>
-      <c r="D168" t="s">
-        <v>163</v>
-      </c>
-      <c r="E168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920350</v>
-      </c>
-      <c r="B169" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" t="s">
-        <v>125</v>
-      </c>
-      <c r="D169" t="s">
-        <v>163</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920351</v>
-      </c>
-      <c r="B170" t="s">
-        <v>100</v>
-      </c>
-      <c r="C170" t="s">
-        <v>126</v>
-      </c>
-      <c r="D170" t="s">
-        <v>143</v>
-      </c>
-      <c r="E170" t="s">
-        <v>5</v>
-      </c>
-      <c r="F170" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920351</v>
-      </c>
-      <c r="B171" t="s">
-        <v>100</v>
-      </c>
-      <c r="C171" t="s">
-        <v>126</v>
-      </c>
-      <c r="D171" t="s">
-        <v>143</v>
-      </c>
-      <c r="E171" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920351</v>
-      </c>
-      <c r="B172" t="s">
-        <v>100</v>
-      </c>
-      <c r="C172" t="s">
-        <v>126</v>
-      </c>
-      <c r="D172" t="s">
-        <v>143</v>
-      </c>
-      <c r="E172" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920351</v>
-      </c>
-      <c r="B173" t="s">
-        <v>100</v>
-      </c>
-      <c r="C173" t="s">
-        <v>126</v>
-      </c>
-      <c r="D173" t="s">
-        <v>143</v>
-      </c>
-      <c r="E173" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920352</v>
-      </c>
-      <c r="B174" t="s">
-        <v>101</v>
-      </c>
-      <c r="C174" t="s">
-        <v>127</v>
-      </c>
-      <c r="D174" t="s">
-        <v>164</v>
-      </c>
-      <c r="E174" t="s">
-        <v>4</v>
-      </c>
-      <c r="F174" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920352</v>
-      </c>
-      <c r="B175" t="s">
-        <v>101</v>
-      </c>
-      <c r="C175" t="s">
-        <v>127</v>
-      </c>
-      <c r="D175" t="s">
-        <v>164</v>
-      </c>
-      <c r="E175" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920352</v>
-      </c>
-      <c r="B176" t="s">
-        <v>101</v>
-      </c>
-      <c r="C176" t="s">
-        <v>127</v>
-      </c>
-      <c r="D176" t="s">
-        <v>164</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920352</v>
-      </c>
-      <c r="B177" t="s">
-        <v>101</v>
-      </c>
-      <c r="C177" t="s">
-        <v>127</v>
-      </c>
-      <c r="D177" t="s">
-        <v>164</v>
-      </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920352</v>
-      </c>
-      <c r="B178" t="s">
-        <v>101</v>
-      </c>
-      <c r="C178" t="s">
-        <v>127</v>
-      </c>
-      <c r="D178" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920352</v>
-      </c>
-      <c r="B179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C179" t="s">
-        <v>127</v>
-      </c>
-      <c r="D179" t="s">
-        <v>164</v>
-      </c>
-      <c r="E179" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920354</v>
-      </c>
-      <c r="B180" t="s">
-        <v>102</v>
-      </c>
-      <c r="C180" t="s">
-        <v>128</v>
-      </c>
-      <c r="D180" t="s">
-        <v>165</v>
-      </c>
-      <c r="E180" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920354</v>
-      </c>
-      <c r="B181" t="s">
-        <v>102</v>
-      </c>
-      <c r="C181" t="s">
-        <v>128</v>
-      </c>
-      <c r="D181" t="s">
-        <v>165</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920354</v>
-      </c>
-      <c r="B182" t="s">
-        <v>102</v>
-      </c>
-      <c r="C182" t="s">
-        <v>128</v>
-      </c>
-      <c r="D182" t="s">
-        <v>165</v>
-      </c>
-      <c r="E182" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920354</v>
-      </c>
-      <c r="B183" t="s">
-        <v>102</v>
-      </c>
-      <c r="C183" t="s">
-        <v>128</v>
-      </c>
-      <c r="D183" t="s">
-        <v>165</v>
-      </c>
-      <c r="E183" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920354</v>
-      </c>
-      <c r="B184" t="s">
-        <v>102</v>
-      </c>
-      <c r="C184" t="s">
-        <v>128</v>
-      </c>
-      <c r="D184" t="s">
-        <v>165</v>
-      </c>
-      <c r="E184" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920354</v>
-      </c>
-      <c r="B185" t="s">
-        <v>102</v>
-      </c>
-      <c r="C185" t="s">
-        <v>128</v>
-      </c>
-      <c r="D185" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920353</v>
-      </c>
-      <c r="B186" t="s">
-        <v>103</v>
-      </c>
-      <c r="C186" t="s">
-        <v>129</v>
-      </c>
-      <c r="D186" t="s">
-        <v>166</v>
-      </c>
-      <c r="E186" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920353</v>
-      </c>
-      <c r="B187" t="s">
-        <v>103</v>
-      </c>
-      <c r="C187" t="s">
-        <v>129</v>
-      </c>
-      <c r="D187" t="s">
-        <v>166</v>
-      </c>
-      <c r="E187" t="s">
-        <v>5</v>
-      </c>
-      <c r="F187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920353</v>
-      </c>
-      <c r="B188" t="s">
-        <v>103</v>
-      </c>
-      <c r="C188" t="s">
-        <v>129</v>
-      </c>
-      <c r="D188" t="s">
-        <v>166</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920353</v>
-      </c>
-      <c r="B189" t="s">
-        <v>103</v>
-      </c>
-      <c r="C189" t="s">
-        <v>129</v>
-      </c>
-      <c r="D189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E189" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920353</v>
-      </c>
-      <c r="B190" t="s">
-        <v>103</v>
-      </c>
-      <c r="C190" t="s">
-        <v>129</v>
-      </c>
-      <c r="D190" t="s">
-        <v>166</v>
-      </c>
-      <c r="E190" t="s">
-        <v>4</v>
-      </c>
-      <c r="F190" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920353</v>
-      </c>
-      <c r="B191" t="s">
-        <v>103</v>
-      </c>
-      <c r="C191" t="s">
-        <v>129</v>
-      </c>
-      <c r="D191" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920355</v>
-      </c>
-      <c r="B192" t="s">
-        <v>102</v>
-      </c>
-      <c r="C192" t="s">
-        <v>102</v>
-      </c>
-      <c r="D192" t="s">
-        <v>167</v>
-      </c>
-      <c r="E192" t="s">
-        <v>4</v>
-      </c>
-      <c r="F192" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920355</v>
-      </c>
-      <c r="B193" t="s">
-        <v>102</v>
-      </c>
-      <c r="C193" t="s">
-        <v>102</v>
-      </c>
-      <c r="D193" t="s">
-        <v>167</v>
-      </c>
-      <c r="E193" t="s">
-        <v>7</v>
-      </c>
-      <c r="F193" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920355</v>
-      </c>
-      <c r="B194" t="s">
-        <v>102</v>
-      </c>
-      <c r="C194" t="s">
-        <v>102</v>
-      </c>
-      <c r="D194" t="s">
-        <v>167</v>
-      </c>
-      <c r="E194" t="s">
-        <v>5</v>
-      </c>
-      <c r="F194" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920355</v>
-      </c>
-      <c r="B195" t="s">
-        <v>102</v>
-      </c>
-      <c r="C195" t="s">
-        <v>102</v>
-      </c>
-      <c r="D195" t="s">
-        <v>167</v>
-      </c>
-      <c r="E195" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920355</v>
-      </c>
-      <c r="B196" t="s">
-        <v>102</v>
-      </c>
-      <c r="C196" t="s">
-        <v>102</v>
-      </c>
-      <c r="D196" t="s">
-        <v>167</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920355</v>
-      </c>
-      <c r="B197" t="s">
-        <v>102</v>
-      </c>
-      <c r="C197" t="s">
-        <v>102</v>
-      </c>
-      <c r="D197" t="s">
-        <v>167</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>17330051920076</v>
-      </c>
-      <c r="B198" t="s">
-        <v>104</v>
-      </c>
-      <c r="C198" t="s">
-        <v>130</v>
-      </c>
-      <c r="D198" t="s">
-        <v>168</v>
-      </c>
-      <c r="E198" t="s">
-        <v>7</v>
-      </c>
-      <c r="F198" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>17330051920076</v>
-      </c>
-      <c r="B199" t="s">
-        <v>104</v>
-      </c>
-      <c r="C199" t="s">
-        <v>130</v>
-      </c>
-      <c r="D199" t="s">
-        <v>168</v>
-      </c>
-      <c r="E199" t="s">
-        <v>4</v>
-      </c>
-      <c r="F199" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7923,16 +5843,16 @@
         <v>19330051920450</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7940,16 +5860,16 @@
         <v>19330051920327</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7957,16 +5877,16 @@
         <v>19330051920453</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7974,16 +5894,16 @@
         <v>19330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7991,16 +5911,16 @@
         <v>19330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8008,13 +5928,13 @@
         <v>19330051920445</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -8025,13 +5945,13 @@
         <v>19330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -8039,16 +5959,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920347</v>
+        <v>19330051920440</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -8059,13 +5979,13 @@
         <v>19330051920352</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -8073,33 +5993,33 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920350</v>
+        <v>19330051920355</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920354</v>
+        <v>19330051920308</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -8107,19 +6027,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920308</v>
+        <v>19330051920332</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8127,16 +6047,16 @@
         <v>19330051920334</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8144,115 +6064,115 @@
         <v>19330051920338</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920440</v>
+        <v>19330051920347</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920355</v>
+        <v>19330051920350</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920307</v>
+        <v>19330051920354</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920312</v>
+        <v>19330051920353</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920321</v>
+        <v>19330051920311</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920330</v>
+        <v>19330051920441</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -8260,16 +6180,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920332</v>
+        <v>19330051920321</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -8277,33 +6197,33 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920353</v>
+        <v>19330051920307</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920311</v>
+        <v>19330051920312</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -8311,67 +6231,67 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920309</v>
+        <v>19330051920330</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920316</v>
+        <v>19330051920337</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920318</v>
+        <v>19330051920351</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920319</v>
+        <v>19330051920309</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8379,16 +6299,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920323</v>
+        <v>19330051920316</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -8396,16 +6316,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920441</v>
+        <v>19330051920318</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8413,16 +6333,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920325</v>
+        <v>19330051920319</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8430,16 +6350,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920331</v>
+        <v>19330051920323</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -8447,16 +6367,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920333</v>
+        <v>19330051920325</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8464,16 +6384,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920337</v>
+        <v>19330051920331</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8481,16 +6401,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920341</v>
+        <v>19330051920333</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -8498,16 +6418,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920344</v>
+        <v>19330051920341</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8515,16 +6435,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920345</v>
+        <v>19330051920344</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8532,16 +6452,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920346</v>
+        <v>19330051920345</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8549,16 +6469,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920351</v>
+        <v>19330051920346</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -8569,10 +6489,10 @@
         <v>17330051920076</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -8588,7 +6508,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8618,53 +6538,237 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17330051920076</v>
+        <v>19330051920441</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>19330051920441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920307</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>17330051920076</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
         <v>168</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G3">
-        <v>7</v>
+      <c r="G11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4APV - Estadisticos 2020.xlsx
+++ b/grupos/4APV - Estadisticos 2020.xlsx
@@ -3958,10 +3958,10 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3978,10 +3978,10 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3998,10 +3998,10 @@
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4018,10 +4018,10 @@
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4038,10 +4038,10 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4058,10 +4058,10 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4078,10 +4078,10 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/grupos/4APV - Estadisticos 2020.xlsx
+++ b/grupos/4APV - Estadisticos 2020.xlsx
@@ -4038,10 +4038,10 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4078,10 +4078,10 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
